--- a/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{50B0B14E-3943-48CA-8E3D-9AC60E209266}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="11085" windowHeight="6525" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="0" calcMode="manual"/>
+  <oleSize ref="A1:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -36,30 +36,15 @@
     <t>FaxLine</t>
   </si>
   <si>
-    <t>Prefix</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
     <t>CreditCard</t>
   </si>
   <si>
-    <t>receiveStatus</t>
-  </si>
-  <si>
-    <t>sendStatus</t>
-  </si>
-  <si>
-    <t>faxLineName</t>
-  </si>
-  <si>
     <t>CreditCard faxline</t>
   </si>
   <si>
@@ -75,16 +60,22 @@
     <t>4444</t>
   </si>
   <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
+    <t>FaxLineName</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>SendStatus</t>
+  </si>
+  <si>
+    <t>ReceiveStatus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,12 +112,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,23 +391,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" activeCellId="1" sqref="A2 B2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -423,45 +418,39 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -471,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,51 +477,45 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -542,10 +525,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -565,7 +548,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>

--- a/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="11085" windowHeight="6525" activeTab="1"/>
+    <workbookView xWindow="1200" yWindow="-135" windowWidth="13635" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" calcMode="manual"/>
-  <oleSize ref="A1:G20"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:N20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -70,6 +71,44 @@
   </si>
   <si>
     <t>ReceiveStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CreditCard </t>
+  </si>
+  <si>
+    <t>Updated Description</t>
+  </si>
+  <si>
+    <t>Updated Status</t>
+  </si>
+  <si>
+    <t>Updated SendStatus</t>
+  </si>
+  <si>
+    <t>Updated ReceiveStatus</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>All type of Loans</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select DNIS as 'Fax Line'
+  ,FaxLineName as Name
+  ,Description
+  ,Enabled
+  ,SendEnabled as 'Send Enabled'
+  ,ReceiveEnabled as 'Receive Enabled'
+  ,LastChangedBy as 'Last Changed By', 
+  Substring(LastChangedOn,11,18) as 'Last Changed On'
+  FROM [Product_OCM].[dbo].[Fax_Dnis]</t>
   </si>
 </sst>
 </file>
@@ -112,13 +151,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,21 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -433,7 +479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -450,6 +496,26 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -461,18 +527,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -494,8 +568,20 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -503,19 +589,31 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -526,35 +624,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="-135" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="6675" yWindow="-135" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:K20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -109,6 +109,24 @@
   ,LastChangedBy as 'Last Changed By', 
   Substring(LastChangedOn,11,18) as 'Last Changed On'
   FROM [Product_OCM].[dbo].[Fax_Dnis]</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>55555</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -445,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,6 +537,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -527,17 +585,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K2"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="8" max="8" width="24.5703125" customWidth="1"/>
@@ -614,6 +672,41 @@
       </c>
       <c r="K2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6675" yWindow="-135" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:I20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -43,9 +43,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>CreditCard</t>
-  </si>
-  <si>
     <t>CreditCard faxline</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>ReceiveStatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreditCard </t>
   </si>
   <si>
     <t>Updated Description</t>
@@ -127,6 +121,33 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t>9898</t>
+  </si>
+  <si>
+    <t>Fax Test 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fax Test for Fax Line Config </t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fax Test for Fax Line Config updated </t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>Fax Depends Faxline</t>
+  </si>
+  <si>
+    <t>Fax Depends Faxline Test</t>
+  </si>
+  <si>
+    <t>Faxline Depends</t>
   </si>
 </sst>
 </file>
@@ -455,7 +476,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -463,17 +484,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -482,99 +503,119 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -587,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +639,8 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
@@ -609,104 +651,104 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" t="s">
-        <v>15</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -720,15 +762,15 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
@@ -741,47 +783,65 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1000</v>
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -804,12 +864,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="6795" yWindow="3315" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,60 +93,59 @@
     <t>Query</t>
   </si>
   <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>55555</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>9898</t>
+  </si>
+  <si>
+    <t>Fax Test 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fax Test for Fax Line Config </t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fax Test for Fax Line Config updated </t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>Fax Depends Faxline</t>
+  </si>
+  <si>
+    <t>Fax Depends Faxline Test</t>
+  </si>
+  <si>
+    <t>Faxline Depends</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Select DNIS as 'Fax Line'
   ,FaxLineName as Name
   ,Description
   ,Enabled
   ,SendEnabled as 'Send Enabled'
   ,ReceiveEnabled as 'Receive Enabled'
-  ,LastChangedBy as 'Last Changed By', 
-  Substring(LastChangedOn,11,18) as 'Last Changed On'
+  ,LastChangedBy as 'Last Changed By' 
   FROM [Product_OCM].[dbo].[Fax_Dnis]</t>
-  </si>
-  <si>
-    <t>22222</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t>department</t>
-  </si>
-  <si>
-    <t>55555</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>9898</t>
-  </si>
-  <si>
-    <t>Fax Test 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fax Test for Fax Line Config </t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fax Test for Fax Line Config updated </t>
-  </si>
-  <si>
-    <t>1919</t>
-  </si>
-  <si>
-    <t>Fax Depends Faxline</t>
-  </si>
-  <si>
-    <t>Fax Depends Faxline Test</t>
-  </si>
-  <si>
-    <t>Faxline Depends</t>
   </si>
 </sst>
 </file>
@@ -476,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,7 +485,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,13 +518,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -560,13 +558,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -580,13 +578,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -600,13 +598,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -629,7 +627,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,28 +681,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -762,7 +760,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,16 +798,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -823,16 +821,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -867,9 +865,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -79,12 +80,6 @@
   </si>
   <si>
     <t>Updated ReceiveStatus</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Loans</t>
   </si>
   <si>
     <t>All type of Loans</t>
@@ -146,6 +141,15 @@
   ,ReceiveEnabled as 'Receive Enabled'
   ,LastChangedBy as 'Last Changed By' 
   FROM [Product_OCM].[dbo].[Fax_Dnis]</t>
+  </si>
+  <si>
+    <t>202019</t>
+  </si>
+  <si>
+    <t>Fax Test 1 UOB</t>
+  </si>
+  <si>
+    <t>Fax Test for  UOB</t>
   </si>
 </sst>
 </file>
@@ -474,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,7 +489,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,13 +522,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -538,13 +542,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -558,13 +562,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -578,13 +582,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -598,13 +602,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -681,28 +685,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -798,16 +802,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -821,16 +825,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -862,12 +866,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="5160" yWindow="3990" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:J20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -112,9 +112,6 @@
     <t>Fax Test 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Fax Test for Fax Line Config </t>
-  </si>
-  <si>
     <t>Modified</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Fax Test for  UOB</t>
+  </si>
+  <si>
+    <t>Fax Test for UOB</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -489,7 +489,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,10 +522,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>39</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
@@ -605,10 +605,10 @@
         <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -631,14 +631,14 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E13" sqref="E13:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
@@ -685,28 +685,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -764,7 +764,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +772,7 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
@@ -802,16 +802,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -831,10 +831,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="8040"/>
+    <workbookView xWindow="5160" yWindow="3990" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -81,12 +82,6 @@
     <t>Updated ReceiveStatus</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>Loans</t>
-  </si>
-  <si>
     <t>All type of Loans</t>
   </si>
   <si>
@@ -115,9 +110,6 @@
   </si>
   <si>
     <t>Fax Test 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fax Test for Fax Line Config </t>
   </si>
   <si>
     <t>Modified</t>
@@ -146,6 +138,18 @@
   ,ReceiveEnabled as 'Receive Enabled'
   ,LastChangedBy as 'Last Changed By' 
   FROM [Product_OCM].[dbo].[Fax_Dnis]</t>
+  </si>
+  <si>
+    <t>202019</t>
+  </si>
+  <si>
+    <t>Fax Test 1 UOB</t>
+  </si>
+  <si>
+    <t>Fax Test for  UOB</t>
+  </si>
+  <si>
+    <t>Fax Test for UOB</t>
   </si>
 </sst>
 </file>
@@ -474,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,7 +489,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,13 +522,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -538,13 +542,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -558,13 +562,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -578,13 +582,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -598,13 +602,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -627,14 +631,14 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E13" sqref="E13:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
@@ -681,28 +685,28 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -760,7 +764,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +772,7 @@
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
   </cols>
@@ -798,16 +802,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -821,16 +825,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -862,12 +866,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="3990" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
+  <oleSize ref="A1:L13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
   <si>
     <t>Modify Reason</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Fax Test 1 UOB</t>
-  </si>
-  <si>
-    <t>Fax Test for  UOB</t>
   </si>
   <si>
     <t>Fax Test for UOB</t>
@@ -478,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +525,7 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -631,7 +628,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:G35"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,12 +761,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
@@ -855,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxLineConfigData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C5C83C-FB34-40DE-BCAF-1186CB70FC32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,6 +130,15 @@
     <t>Faxline Depends</t>
   </si>
   <si>
+    <t>202019</t>
+  </si>
+  <si>
+    <t>Fax Test 1 UOB</t>
+  </si>
+  <si>
+    <t>Fax Test for UOB</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Select DNIS as 'Fax Line'
   ,FaxLineName as Name
   ,Description
@@ -137,22 +146,13 @@
   ,SendEnabled as 'Send Enabled'
   ,ReceiveEnabled as 'Receive Enabled'
   ,LastChangedBy as 'Last Changed By' 
-  FROM [Product_OCM].[dbo].[Fax_Dnis]</t>
-  </si>
-  <si>
-    <t>202019</t>
-  </si>
-  <si>
-    <t>Fax Test 1 UOB</t>
-  </si>
-  <si>
-    <t>Fax Test for UOB</t>
+  FROM [Product_OCM].[dbo].[Fax_Dnis] Order By FaxLineName Asc;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,29 +475,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -517,16 +517,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
@@ -537,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -557,7 +557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -597,7 +597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -624,28 +624,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="38.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -680,15 +680,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -715,7 +715,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -757,24 +757,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -797,15 +797,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
@@ -820,7 +820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -849,26 +849,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
